--- a/ResultadoEleicoesDistritos/PORTALEGRE_CAMPO MAIOR.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_CAMPO MAIOR.xlsx
@@ -597,64 +597,64 @@
         <v>2083</v>
       </c>
       <c r="H2" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J2" t="n">
-        <v>842</v>
+        <v>869</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="T2" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
